--- a/Analytics/D2/MultiBookings_d2.xlsx
+++ b/Analytics/D2/MultiBookings_d2.xlsx
@@ -121,12 +121,12 @@
     <t>St Pauli</t>
   </si>
   <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
     <t>Elversberg</t>
   </si>
   <si>
-    <t>Karlsruhe</t>
-  </si>
-  <si>
     <t>Magdeburg</t>
   </si>
   <si>
@@ -136,7 +136,7 @@
     <t>SUM("TMultiBookings")</t>
   </si>
   <si>
-    <t>SUM("TMultiBookings") / 30</t>
+    <t>SUM("TMultiBookings") / 34</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>5100.0</v>
+        <v>5350.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>4750.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="19">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
         <v>5950.0</v>
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>5700.0</v>
+        <v>5750.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>5550.0</v>
+        <v>5700.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>5150.0</v>
+        <v>5550.0</v>
       </c>
     </row>
     <row r="16">
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="n">
         <v>3900.0</v>
@@ -650,7 +650,7 @@
         <v>19750.0</v>
       </c>
       <c r="D2" t="n">
-        <v>658.3333333333334</v>
+        <v>580.8823529411765</v>
       </c>
     </row>
     <row r="3">
@@ -664,7 +664,7 @@
         <v>18850.0</v>
       </c>
       <c r="D3" t="n">
-        <v>628.3333333333334</v>
+        <v>554.4117647058823</v>
       </c>
     </row>
     <row r="4">
@@ -678,7 +678,7 @@
         <v>17500.0</v>
       </c>
       <c r="D4" t="n">
-        <v>583.3333333333334</v>
+        <v>514.7058823529412</v>
       </c>
     </row>
     <row r="5">
@@ -692,7 +692,7 @@
         <v>17250.0</v>
       </c>
       <c r="D5" t="n">
-        <v>575.0</v>
+        <v>507.3529411764706</v>
       </c>
     </row>
     <row r="6">
@@ -706,7 +706,7 @@
         <v>17200.0</v>
       </c>
       <c r="D6" t="n">
-        <v>573.3333333333334</v>
+        <v>505.88235294117646</v>
       </c>
     </row>
     <row r="7">
@@ -720,7 +720,7 @@
         <v>15600.0</v>
       </c>
       <c r="D7" t="n">
-        <v>520.0</v>
+        <v>458.8235294117647</v>
       </c>
     </row>
     <row r="8">
@@ -734,7 +734,7 @@
         <v>15300.0</v>
       </c>
       <c r="D8" t="n">
-        <v>510.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="9">
@@ -748,7 +748,7 @@
         <v>14950.0</v>
       </c>
       <c r="D9" t="n">
-        <v>498.3333333333333</v>
+        <v>439.70588235294116</v>
       </c>
     </row>
     <row r="10">
@@ -762,7 +762,7 @@
         <v>14900.0</v>
       </c>
       <c r="D10" t="n">
-        <v>496.6666666666667</v>
+        <v>438.2352941176471</v>
       </c>
     </row>
     <row r="11">
@@ -776,7 +776,7 @@
         <v>13650.0</v>
       </c>
       <c r="D11" t="n">
-        <v>455.0</v>
+        <v>401.47058823529414</v>
       </c>
     </row>
     <row r="12">
@@ -790,7 +790,7 @@
         <v>13600.0</v>
       </c>
       <c r="D12" t="n">
-        <v>453.3333333333333</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="13">
@@ -804,7 +804,7 @@
         <v>12950.0</v>
       </c>
       <c r="D13" t="n">
-        <v>431.6666666666667</v>
+        <v>380.88235294117646</v>
       </c>
     </row>
     <row r="14">
@@ -818,7 +818,7 @@
         <v>12150.0</v>
       </c>
       <c r="D14" t="n">
-        <v>405.0</v>
+        <v>357.3529411764706</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
         <v>11050.0</v>
       </c>
       <c r="D15" t="n">
-        <v>368.3333333333333</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>10900.0</v>
+        <v>9600.0</v>
       </c>
       <c r="D16" t="n">
-        <v>363.3333333333333</v>
+        <v>282.3529411764706</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
-        <v>9600.0</v>
+        <v>9550.0</v>
       </c>
       <c r="D17" t="n">
-        <v>320.0</v>
+        <v>280.88235294117646</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>9550.0</v>
+        <v>9250.0</v>
       </c>
       <c r="D18" t="n">
-        <v>318.3333333333333</v>
+        <v>272.05882352941177</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C19" t="n">
-        <v>8650.0</v>
+        <v>5750.0</v>
       </c>
       <c r="D19" t="n">
-        <v>288.3333333333333</v>
+        <v>169.11764705882354</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/D2/MultiBookings_d2.xlsx
+++ b/Analytics/D2/MultiBookings_d2.xlsx
@@ -76,58 +76,58 @@
     <t>18</t>
   </si>
   <si>
+    <t>Hertha</t>
+  </si>
+  <si>
+    <t>Schalke 04</t>
+  </si>
+  <si>
+    <t>Ulm</t>
+  </si>
+  <si>
+    <t>PreuÃŸen MÃ¼nster</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>FC Koln</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>Fortuna Dusseldorf</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>Regensburg</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
+    <t>Elversberg</t>
+  </si>
+  <si>
+    <t>Kaiserslautern</t>
+  </si>
+  <si>
+    <t>Paderborn</t>
+  </si>
+  <si>
+    <t>Greuther Furth</t>
+  </si>
+  <si>
     <t>Nurnberg</t>
-  </si>
-  <si>
-    <t>Greuther Furth</t>
-  </si>
-  <si>
-    <t>Schalke 04</t>
-  </si>
-  <si>
-    <t>Osnabruck</t>
-  </si>
-  <si>
-    <t>Fortuna Dusseldorf</t>
-  </si>
-  <si>
-    <t>Hertha</t>
-  </si>
-  <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Wehen</t>
-  </si>
-  <si>
-    <t>Hannover</t>
-  </si>
-  <si>
-    <t>Kaiserslautern</t>
-  </si>
-  <si>
-    <t>Hansa Rostock</t>
-  </si>
-  <si>
-    <t>Paderborn</t>
-  </si>
-  <si>
-    <t>Braunschweig</t>
-  </si>
-  <si>
-    <t>Hamburg</t>
-  </si>
-  <si>
-    <t>St Pauli</t>
-  </si>
-  <si>
-    <t>Karlsruhe</t>
-  </si>
-  <si>
-    <t>Elversberg</t>
-  </si>
-  <si>
-    <t>Magdeburg</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>12450.0</v>
+        <v>5950.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>12300.0</v>
+        <v>5700.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>8100.0</v>
+        <v>5700.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>8100.0</v>
+        <v>4300.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>7900.0</v>
+        <v>4200.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>7400.0</v>
+        <v>3750.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>7000.0</v>
+        <v>3750.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>6900.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>6700.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>6500.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>6450.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>5750.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>5600.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>5550.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>5500.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>5350.0</v>
+        <v>1750.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>5100.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>4650.0</v>
+        <v>1200.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>11700.0</v>
+        <v>4700.0</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>10950.0</v>
+        <v>4700.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>10750.0</v>
+        <v>4500.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>9400.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>8450.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>8400.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>8200.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>7300.0</v>
+        <v>3550.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>6550.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>5950.0</v>
+        <v>3450.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>5950.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>5750.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>5700.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>5550.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>4750.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>4100.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>3950.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>3900.0</v>
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>
@@ -647,10 +647,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>19750.0</v>
+        <v>9850.0</v>
       </c>
       <c r="D2" t="n">
-        <v>580.8823529411765</v>
+        <v>289.70588235294116</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>18850.0</v>
+        <v>9150.0</v>
       </c>
       <c r="D3" t="n">
-        <v>554.4117647058823</v>
+        <v>269.11764705882354</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>17500.0</v>
+        <v>8900.0</v>
       </c>
       <c r="D4" t="n">
-        <v>514.7058823529412</v>
+        <v>261.7647058823529</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>17250.0</v>
+        <v>7700.0</v>
       </c>
       <c r="D5" t="n">
-        <v>507.3529411764706</v>
+        <v>226.47058823529412</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>17200.0</v>
+        <v>7200.0</v>
       </c>
       <c r="D6" t="n">
-        <v>505.88235294117646</v>
+        <v>211.76470588235293</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>15600.0</v>
+        <v>6850.0</v>
       </c>
       <c r="D7" t="n">
-        <v>458.8235294117647</v>
+        <v>201.47058823529412</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>15300.0</v>
+        <v>6700.0</v>
       </c>
       <c r="D8" t="n">
-        <v>450.0</v>
+        <v>197.05882352941177</v>
       </c>
     </row>
     <row r="9">
@@ -745,10 +745,10 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>14950.0</v>
+        <v>6600.0</v>
       </c>
       <c r="D9" t="n">
-        <v>439.70588235294116</v>
+        <v>194.11764705882354</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>14900.0</v>
+        <v>6600.0</v>
       </c>
       <c r="D10" t="n">
-        <v>438.2352941176471</v>
+        <v>194.11764705882354</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>13650.0</v>
+        <v>6050.0</v>
       </c>
       <c r="D11" t="n">
-        <v>401.47058823529414</v>
+        <v>177.94117647058823</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>13600.0</v>
+        <v>6000.0</v>
       </c>
       <c r="D12" t="n">
-        <v>400.0</v>
+        <v>176.47058823529412</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>12950.0</v>
+        <v>5900.0</v>
       </c>
       <c r="D13" t="n">
-        <v>380.88235294117646</v>
+        <v>173.52941176470588</v>
       </c>
     </row>
     <row r="14">
@@ -815,10 +815,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>12150.0</v>
+        <v>5650.0</v>
       </c>
       <c r="D14" t="n">
-        <v>357.3529411764706</v>
+        <v>166.1764705882353</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>11050.0</v>
+        <v>5400.0</v>
       </c>
       <c r="D15" t="n">
-        <v>325.0</v>
+        <v>158.8235294117647</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>9600.0</v>
+        <v>5300.0</v>
       </c>
       <c r="D16" t="n">
-        <v>282.3529411764706</v>
+        <v>155.88235294117646</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>9550.0</v>
+        <v>4900.0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.88235294117646</v>
+        <v>144.11764705882354</v>
       </c>
     </row>
     <row r="18">
@@ -871,10 +871,10 @@
         <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>9250.0</v>
+        <v>4750.0</v>
       </c>
       <c r="D18" t="n">
-        <v>272.05882352941177</v>
+        <v>139.7058823529412</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>5750.0</v>
+        <v>4500.0</v>
       </c>
       <c r="D19" t="n">
-        <v>169.11764705882354</v>
+        <v>132.35294117647058</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/D2/MultiBookings_d2.xlsx
+++ b/Analytics/D2/MultiBookings_d2.xlsx
@@ -76,24 +76,24 @@
     <t>18</t>
   </si>
   <si>
+    <t>Schalke 04</t>
+  </si>
+  <si>
     <t>Hertha</t>
   </si>
   <si>
-    <t>Schalke 04</t>
-  </si>
-  <si>
     <t>Ulm</t>
   </si>
   <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>FC Koln</t>
+  </si>
+  <si>
     <t>PreuÃŸen MÃ¼nster</t>
   </si>
   <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>FC Koln</t>
-  </si>
-  <si>
     <t>Hamburg</t>
   </si>
   <si>
@@ -103,18 +103,18 @@
     <t>Fortuna Dusseldorf</t>
   </si>
   <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
     <t>Hannover</t>
   </si>
   <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
     <t>Regensburg</t>
   </si>
   <si>
-    <t>Magdeburg</t>
-  </si>
-  <si>
-    <t>Braunschweig</t>
-  </si>
-  <si>
     <t>Elversberg</t>
   </si>
   <si>
@@ -124,10 +124,10 @@
     <t>Paderborn</t>
   </si>
   <si>
+    <t>Nurnberg</t>
+  </si>
+  <si>
     <t>Greuther Furth</t>
-  </si>
-  <si>
-    <t>Nurnberg</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>5950.0</v>
+        <v>6000.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>5700.0</v>
+        <v>5950.0</v>
       </c>
     </row>
     <row r="4">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>4300.0</v>
+        <v>5700.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>4200.0</v>
+        <v>4650.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>3750.0</v>
+        <v>4300.0</v>
       </c>
     </row>
     <row r="8">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>3200.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="10">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>2900.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>2700.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>2500.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>2500.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="15">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>1200.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="19">
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>4700.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>4700.0</v>
+        <v>4900.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>4500.0</v>
+        <v>4700.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
-        <v>3900.0</v>
+        <v>4700.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>3900.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>3700.0</v>
+        <v>4200.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>3700.0</v>
+        <v>3850.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>3550.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>3500.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>3450.0</v>
+        <v>3550.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>3200.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>3100.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="14">
@@ -597,7 +597,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
         <v>1900.0</v>
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>9850.0</v>
+        <v>11350.0</v>
       </c>
       <c r="D2" t="n">
-        <v>289.70588235294116</v>
+        <v>333.8235294117647</v>
       </c>
     </row>
     <row r="3">
@@ -661,10 +661,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>9150.0</v>
+        <v>9550.0</v>
       </c>
       <c r="D3" t="n">
-        <v>269.11764705882354</v>
+        <v>280.88235294117646</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>8900.0</v>
+        <v>9200.0</v>
       </c>
       <c r="D4" t="n">
-        <v>261.7647058823529</v>
+        <v>270.5882352941176</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>7700.0</v>
+        <v>9200.0</v>
       </c>
       <c r="D5" t="n">
-        <v>226.47058823529412</v>
+        <v>270.5882352941176</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>7200.0</v>
+        <v>7800.0</v>
       </c>
       <c r="D6" t="n">
-        <v>211.76470588235293</v>
+        <v>229.41176470588235</v>
       </c>
     </row>
     <row r="7">
@@ -717,10 +717,10 @@
         <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>6850.0</v>
+        <v>7450.0</v>
       </c>
       <c r="D7" t="n">
-        <v>201.47058823529412</v>
+        <v>219.11764705882354</v>
       </c>
     </row>
     <row r="8">
@@ -731,10 +731,10 @@
         <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>6700.0</v>
+        <v>7100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>197.05882352941177</v>
+        <v>208.8235294117647</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>6600.0</v>
+        <v>6900.0</v>
       </c>
       <c r="D9" t="n">
-        <v>194.11764705882354</v>
+        <v>202.94117647058823</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>6050.0</v>
+        <v>6550.0</v>
       </c>
       <c r="D11" t="n">
-        <v>177.94117647058823</v>
+        <v>192.64705882352942</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>6000.0</v>
+        <v>6450.0</v>
       </c>
       <c r="D12" t="n">
-        <v>176.47058823529412</v>
+        <v>189.7058823529412</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>5900.0</v>
+        <v>6300.0</v>
       </c>
       <c r="D13" t="n">
-        <v>173.52941176470588</v>
+        <v>185.2941176470588</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>5650.0</v>
+        <v>6000.0</v>
       </c>
       <c r="D14" t="n">
-        <v>166.1764705882353</v>
+        <v>176.47058823529412</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>5400.0</v>
+        <v>5800.0</v>
       </c>
       <c r="D15" t="n">
-        <v>158.8235294117647</v>
+        <v>170.58823529411765</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>5300.0</v>
+        <v>5700.0</v>
       </c>
       <c r="D16" t="n">
-        <v>155.88235294117646</v>
+        <v>167.64705882352942</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>4900.0</v>
+        <v>5300.0</v>
       </c>
       <c r="D17" t="n">
-        <v>144.11764705882354</v>
+        <v>155.88235294117646</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>4750.0</v>
+        <v>4800.0</v>
       </c>
       <c r="D18" t="n">
-        <v>139.7058823529412</v>
+        <v>141.1764705882353</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C19" t="n">
-        <v>4500.0</v>
+        <v>4750.0</v>
       </c>
       <c r="D19" t="n">
-        <v>132.35294117647058</v>
+        <v>139.7058823529412</v>
       </c>
     </row>
   </sheetData>
